--- a/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationLevelofexertionValueSet.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-NoDomainVitalSignsObservationLevelofexertionValueSet.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Property</t>
   </si>
@@ -88,9 +87,6 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>ValueSet URL</t>
   </si>
 </sst>
 </file>
@@ -343,26 +339,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>